--- a/KStore/KStore/wwwroot/export-files/Bill_5.xlsx
+++ b/KStore/KStore/wwwroot/export-files/Bill_5.xlsx
@@ -47,13 +47,13 @@
     <t>SĐT: 0966 026 626</t>
   </si>
   <si>
-    <t>Customer Name: Nguyễn Thị Mai</t>
-  </si>
-  <si>
-    <t>Address: Xóm Bứa,Trung Hòa, Chương Mỹ, Hà Nội</t>
-  </si>
-  <si>
-    <t>Phone: 0337762955</t>
+    <t>Customer Name: Nguyen Van Phong</t>
+  </si>
+  <si>
+    <t>Address: Ha noi</t>
+  </si>
+  <si>
+    <t>Phone: 0869690298</t>
   </si>
   <si>
     <t>TT</t>
@@ -74,19 +74,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>Product 18</t>
-  </si>
-  <si>
-    <t>1,000</t>
+    <t>Product 201</t>
+  </si>
+  <si>
+    <t>10,000</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Total amount (by word): một nghìn  đồng chẵn</t>
-  </si>
-  <si>
-    <t>25, 11, 2022</t>
+    <t xml:space="preserve">Total amount (by word): mười nghìn  đồng chẵn</t>
+  </si>
+  <si>
+    <t>27, 6, 2022</t>
   </si>
   <si>
     <t>CUSTOMER</t>
